--- a/Examples/Bank.xlsx
+++ b/Examples/Bank.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\XLQuote\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CECCF2-7BDB-46DA-AEB1-1296B7EA0EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A56B15D-8CF2-48AC-9DF2-2C55C02CD59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -214,6 +214,18 @@
   </si>
   <si>
     <t>TotalRiskBasedCapital</t>
+  </si>
+  <si>
+    <t>JPMORGAN CHASE BANK, NATIONAL ASSOCIATION</t>
+  </si>
+  <si>
+    <t>BANK OF AMERICA, NATIONAL ASSOCIATION</t>
+  </si>
+  <si>
+    <t>CITIBANK, NATIONAL ASSOCIATION</t>
+  </si>
+  <si>
+    <t>WELLS FARGO BANK, NATIONAL ASSOCIATION</t>
   </si>
 </sst>
 </file>
@@ -598,21 +610,17 @@
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="str">
-        <f>_xll.xlquoteName(C1,"FDIC")</f>
-        <v>JPMORGAN CHASE BANK, NATIONAL ASSOCIATION</v>
-      </c>
-      <c r="D2" s="5" t="str">
-        <f>_xll.xlquoteName(D1,"FDIC")</f>
-        <v>BANK OF AMERICA, NATIONAL ASSOCIATION</v>
-      </c>
-      <c r="E2" s="5" t="str">
-        <f>_xll.xlquoteName(E1,"FDIC")</f>
-        <v>CITIBANK, NATIONAL ASSOCIATION</v>
-      </c>
-      <c r="F2" s="5" t="str">
-        <f>_xll.xlquoteName(F1,"FDIC")</f>
-        <v>WELLS FARGO BANK, NATIONAL ASSOCIATION</v>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
